--- a/mbs-EP-v.1.0.4 - Baumgarte version/Excel Files/simple pendulum/simple_pendulum.xlsx
+++ b/mbs-EP-v.1.0.4 - Baumgarte version/Excel Files/simple pendulum/simple_pendulum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.3 - changable version\Excel Files\simple pendulum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.4 - Baumgarte version\Excel Files\simple pendulum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D459D912-3168-4D3C-9A02-F5D277ACCAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CE27DE-5CE1-45D7-B4C5-6731ECF3EF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12600" yWindow="4215" windowWidth="16200" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="251">
   <si>
     <t>Mass</t>
   </si>
@@ -1092,7 +1092,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1145,9 +1145,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1258,9 +1255,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1275,6 +1269,48 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1309,21 +1345,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1332,55 +1353,43 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1392,15 +1401,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1416,6 +1416,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1425,59 +1476,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1913,7 +1916,7 @@
   <dimension ref="B2:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,917 +1935,944 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92"/>
-      <c r="J2" s="89" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76"/>
+      <c r="J2" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="41">
+      <c r="C3" s="73"/>
+      <c r="D3" s="40">
         <v>10</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="84" t="s">
+      <c r="J3" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="85"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="84" t="s">
+      <c r="K3" s="78"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="N3" s="85"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="37" t="s">
+      <c r="N3" s="78"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="Q3" s="37" t="s">
+      <c r="Q3" s="36" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="83"/>
-      <c r="D4" s="41">
+      <c r="C4" s="73"/>
+      <c r="D4" s="40">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="L4" s="94"/>
-      <c r="M4" s="36" t="s">
+      <c r="L4" s="80"/>
+      <c r="M4" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="N4" s="37" t="s">
+      <c r="N4" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="O4" s="80"/>
-      <c r="P4" s="37" t="s">
+      <c r="O4" s="92"/>
+      <c r="P4" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="Q4" s="50" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="41" t="s">
+      <c r="C5" s="73"/>
+      <c r="D5" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="L5" s="94"/>
-      <c r="M5" s="37" t="s">
+      <c r="L5" s="80"/>
+      <c r="M5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="N5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="80"/>
-      <c r="P5" s="37" t="s">
+      <c r="O5" s="92"/>
+      <c r="P5" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="Q5" s="51" t="s">
+      <c r="Q5" s="50" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="83"/>
-      <c r="D6" s="41" t="s">
+      <c r="C6" s="73"/>
+      <c r="D6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="K6" s="37" t="s">
+      <c r="K6" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="L6" s="94"/>
-      <c r="M6" s="37" t="s">
+      <c r="L6" s="80"/>
+      <c r="M6" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="O6" s="80"/>
-      <c r="P6" s="37" t="s">
+      <c r="O6" s="92"/>
+      <c r="P6" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="Q6" s="51" t="s">
+      <c r="Q6" s="50" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="41">
+      <c r="C7" s="73"/>
+      <c r="D7" s="40">
         <v>-9806.65</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="94"/>
-      <c r="M7" s="37" t="s">
+      <c r="L7" s="80"/>
+      <c r="M7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="37" t="s">
+      <c r="N7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="80"/>
-      <c r="P7" s="37" t="s">
+      <c r="O7" s="92"/>
+      <c r="P7" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="Q7" s="51" t="s">
+      <c r="Q7" s="50" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="41" t="s">
+      <c r="C8" s="73"/>
+      <c r="D8" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="L8" s="94"/>
-      <c r="M8" s="37" t="s">
+      <c r="L8" s="80"/>
+      <c r="M8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="37" t="s">
+      <c r="N8" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="80"/>
-      <c r="P8" s="37" t="s">
+      <c r="O8" s="92"/>
+      <c r="P8" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="Q8" s="51" t="s">
+      <c r="Q8" s="50" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42" t="s">
+      <c r="C9" s="73"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="L9" s="94"/>
-      <c r="M9" s="37" t="s">
+      <c r="L9" s="80"/>
+      <c r="M9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="80"/>
-      <c r="P9" s="37" t="s">
+      <c r="O9" s="92"/>
+      <c r="P9" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="Q9" s="51" t="s">
+      <c r="Q9" s="50" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="L10" s="94"/>
-      <c r="M10" s="37" t="s">
+      <c r="L10" s="80"/>
+      <c r="M10" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="37" t="s">
+      <c r="N10" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="80"/>
-      <c r="P10" s="40" t="s">
+      <c r="O10" s="92"/>
+      <c r="P10" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="Q10" s="51" t="s">
+      <c r="Q10" s="50" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J11" s="44"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="37" t="s">
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="N11" s="37" t="s">
+      <c r="N11" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="O11" s="80"/>
-      <c r="P11" s="40" t="s">
+      <c r="O11" s="92"/>
+      <c r="P11" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="Q11" s="51" t="s">
+      <c r="Q11" s="50" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="37" t="s">
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="N12" s="37" t="s">
+      <c r="N12" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="O12" s="80"/>
-      <c r="P12" s="37" t="s">
+      <c r="O12" s="92"/>
+      <c r="P12" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="Q12" s="51" t="s">
+      <c r="Q12" s="50" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="56" t="s">
+      <c r="C13" s="71"/>
+      <c r="D13" s="55" t="s">
         <v>234</v>
       </c>
-      <c r="E13" s="56" t="s">
+      <c r="E13" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="37" t="s">
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="37" t="s">
+      <c r="N13" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="80"/>
-      <c r="P13" s="40" t="s">
+      <c r="O13" s="92"/>
+      <c r="P13" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="Q13" s="51" t="s">
+      <c r="Q13" s="50" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56" t="s">
+      <c r="C14" s="71"/>
+      <c r="D14" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="37" t="s">
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="80"/>
+      <c r="M14" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="N14" s="37" t="s">
+      <c r="N14" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="O14" s="80"/>
-      <c r="P14" s="40" t="s">
+      <c r="O14" s="92"/>
+      <c r="P14" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="Q14" s="51" t="s">
+      <c r="Q14" s="50" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56" t="s">
+      <c r="C15" s="71"/>
+      <c r="D15" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="J15" s="84" t="s">
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="J15" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="K15" s="85"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="37" t="s">
+      <c r="K15" s="78"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="N15" s="37" t="s">
+      <c r="N15" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="80"/>
-      <c r="P15" s="40" t="s">
+      <c r="O15" s="92"/>
+      <c r="P15" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="Q15" s="51" t="s">
+      <c r="Q15" s="50" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56" t="s">
+      <c r="C16" s="71"/>
+      <c r="D16" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="J16" s="37" t="s">
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="J16" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="K16" s="37" t="s">
+      <c r="K16" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="L16" s="94"/>
-      <c r="M16" s="37" t="s">
+      <c r="L16" s="80"/>
+      <c r="M16" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="N16" s="37" t="s">
+      <c r="N16" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="O16" s="80"/>
-      <c r="P16" s="37" t="s">
+      <c r="O16" s="92"/>
+      <c r="P16" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="Q16" s="51" t="s">
+      <c r="Q16" s="50" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56" t="s">
+      <c r="C17" s="71"/>
+      <c r="D17" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="J17" s="37" t="s">
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="J17" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="K17" s="37" t="s">
+      <c r="K17" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="L17" s="94"/>
-      <c r="M17" s="84" t="s">
+      <c r="L17" s="80"/>
+      <c r="M17" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="N17" s="85"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="40" t="s">
+      <c r="N17" s="78"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="Q17" s="51" t="s">
+      <c r="Q17" s="50" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56" t="s">
+      <c r="C18" s="71"/>
+      <c r="D18" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="J18" s="37" t="s">
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="J18" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="K18" s="37" t="s">
+      <c r="K18" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="L18" s="94"/>
-      <c r="M18" s="43" t="s">
+      <c r="L18" s="80"/>
+      <c r="M18" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="N18" s="27" t="s">
+      <c r="N18" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="O18" s="80"/>
-      <c r="P18" s="40" t="s">
+      <c r="O18" s="92"/>
+      <c r="P18" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="Q18" s="51" t="s">
+      <c r="Q18" s="50" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="56" t="s">
+      <c r="C19" s="71"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="J19" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="80"/>
+      <c r="M19" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="N19" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="O19" s="92"/>
+      <c r="P19" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q19" s="50" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="71" t="s">
+        <v>236</v>
+      </c>
+      <c r="C20" s="71"/>
+      <c r="D20" s="55" t="s">
         <v>234</v>
       </c>
-      <c r="E19" s="56" t="s">
+      <c r="E20" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="J19" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="K19" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="94"/>
-      <c r="M19" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="N19" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="O19" s="80"/>
-      <c r="P19" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q19" s="51" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="81" t="s">
-        <v>236</v>
-      </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56" t="s">
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="J20" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="L20" s="80"/>
+      <c r="M20" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="N20" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="O20" s="92"/>
+      <c r="P20" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q20" s="50" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="C21" s="71"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="J20" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="K20" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="94"/>
-      <c r="M20" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="N20" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="O20" s="80"/>
-      <c r="P20" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q20" s="51" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="81" t="s">
-        <v>237</v>
-      </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="J21" s="37" t="s">
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="J21" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="K21" s="37" t="s">
+      <c r="K21" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="L21" s="94"/>
-      <c r="M21" s="38" t="s">
+      <c r="L21" s="80"/>
+      <c r="M21" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="N21" s="38" t="s">
+      <c r="N21" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="O21" s="80"/>
-      <c r="P21" s="40" t="s">
+      <c r="O21" s="92"/>
+      <c r="P21" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="Q21" s="51" t="s">
+      <c r="Q21" s="50" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="93" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="86"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="87" t="s">
+      <c r="C22" s="93"/>
+      <c r="D22" s="55">
+        <v>1</v>
+      </c>
+      <c r="E22" s="94" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="87" t="s">
+      <c r="F22" s="94" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="87"/>
-      <c r="H22" s="57">
+      <c r="G22" s="94"/>
+      <c r="H22" s="56"/>
+      <c r="J22" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="L22" s="81"/>
+      <c r="M22" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="N22" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="O22" s="92"/>
+      <c r="P22" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q22" s="50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="55">
         <v>2</v>
       </c>
-      <c r="J22" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="L22" s="95"/>
-      <c r="M22" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="N22" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="O22" s="80"/>
-      <c r="P22" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q22" s="51" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="57"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="40" t="s">
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="56"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="Q23" s="52" t="s">
+      <c r="Q23" s="51" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="57"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="27" t="s">
+      <c r="B24" s="93"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="56"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="Q24" s="52" t="s">
+      <c r="Q24" s="51" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="57"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="27" t="s">
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="56"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="Q25" s="52" t="s">
+      <c r="Q25" s="51" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="57"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="27" t="s">
+      <c r="B26" s="93"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="56"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="Q26" s="52" t="s">
+      <c r="Q26" s="51" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="57"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="27" t="s">
+      <c r="B27" s="93"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="56"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="Q27" s="52" t="s">
+      <c r="Q27" s="51" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="57"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="27" t="s">
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="56"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="Q28" s="52" t="s">
+      <c r="Q28" s="51" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="57"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="27" t="s">
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="94"/>
+      <c r="H29" s="56"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="Q29" s="52" t="s">
+      <c r="Q29" s="51" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="27" t="s">
+      <c r="J30" s="85"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="Q30" s="52" t="s">
+      <c r="Q30" s="51" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="73"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="27" t="s">
+      <c r="J31" s="85"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="Q31" s="52" t="s">
+      <c r="Q31" s="51" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="73"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="80"/>
-      <c r="P32" s="27" t="s">
+      <c r="J32" s="85"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="Q32" s="52" t="s">
+      <c r="Q32" s="51" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="73"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="75"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="27" t="s">
+      <c r="J33" s="85"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="Q33" s="52" t="s">
+      <c r="Q33" s="51" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="73"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="80"/>
-      <c r="P34" s="27" t="s">
+      <c r="J34" s="85"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="92"/>
+      <c r="P34" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="Q34" s="52" t="s">
+      <c r="Q34" s="51" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="73"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="80"/>
-      <c r="P35" s="27" t="s">
+      <c r="J35" s="85"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="Q35" s="52" t="s">
+      <c r="Q35" s="51" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="73"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="80"/>
-      <c r="P36" s="27" t="s">
+      <c r="J36" s="85"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="86"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="92"/>
+      <c r="P36" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="Q36" s="52" t="s">
+      <c r="Q36" s="51" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="73"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="80"/>
-      <c r="P37" s="27" t="s">
+      <c r="J37" s="85"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="86"/>
+      <c r="N37" s="87"/>
+      <c r="O37" s="92"/>
+      <c r="P37" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="Q37" s="52" t="s">
+      <c r="Q37" s="51" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="76"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="77"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="80"/>
-      <c r="P38" s="27" t="s">
+      <c r="J38" s="88"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="89"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="90"/>
+      <c r="O38" s="92"/>
+      <c r="P38" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="Q38" s="52" t="s">
+      <c r="Q38" s="51" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="39" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="P39" s="27" t="s">
+      <c r="P39" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="Q39" s="52" t="s">
+      <c r="Q39" s="51" t="s">
         <v>228</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="J23:N38"/>
+    <mergeCell ref="O3:O38"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="B22:C29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F22:G29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F13:H21"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -2858,21 +2888,6 @@
     <mergeCell ref="L3:L22"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="J23:N38"/>
-    <mergeCell ref="O3:O38"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="B22:C29"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="F22:G29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F13:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2885,7 +2900,7 @@
   <dimension ref="A1:AK195"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH28" sqref="AH28"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2904,118 +2919,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="88"/>
-      <c r="B1" s="88"/>
-      <c r="C1" s="81" t="s">
+      <c r="A1" s="95"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81" t="s">
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81" t="s">
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="53" t="s">
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="53"/>
-      <c r="AE1" s="53"/>
-      <c r="AF1" s="53"/>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="96" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96" t="s">
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96" t="s">
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="81" t="s">
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81" t="s">
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="87" t="s">
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="54" t="s">
+      <c r="S2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="100" t="s">
+      <c r="T2" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="U2" s="101"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="97" t="s">
+      <c r="U2" s="100"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="97" t="s">
+      <c r="X2" s="97"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="99"/>
-      <c r="AC2" s="97" t="s">
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="97" t="s">
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="AG2" s="98"/>
-      <c r="AH2" s="99"/>
-      <c r="AI2" s="97" t="s">
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="AJ2" s="98"/>
-      <c r="AK2" s="99"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="98"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -3069,60 +3084,60 @@
       <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="87"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="55" t="s">
+      <c r="R3" s="94"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="U3" s="55" t="s">
+      <c r="U3" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="V3" s="55" t="s">
+      <c r="V3" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="W3" s="25" t="s">
+      <c r="W3" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="X3" s="25" t="s">
+      <c r="X3" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="25" t="s">
+      <c r="Y3" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="Z3" s="25" t="s">
+      <c r="Z3" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="AA3" s="25" t="s">
+      <c r="AA3" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="AB3" s="25" t="s">
+      <c r="AB3" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="AC3" s="25" t="s">
+      <c r="AC3" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="AD3" s="25" t="s">
+      <c r="AD3" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="AE3" s="25" t="s">
+      <c r="AE3" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="AF3" s="25" t="s">
+      <c r="AF3" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="AG3" s="25" t="s">
+      <c r="AG3" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="AH3" s="25" t="s">
+      <c r="AH3" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AI3" s="53" t="s">
+      <c r="AI3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="AJ3" s="53" t="s">
+      <c r="AJ3" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="AK3" s="53" t="s">
+      <c r="AK3" s="52" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3142,213 +3157,213 @@
       <c r="E4" s="16">
         <v>0</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="25">
         <v>0</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="25">
         <v>0</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="25">
         <v>0</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="25">
         <v>0</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="25">
         <v>0</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="25">
         <v>0</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="25">
         <v>0</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="25">
         <v>0</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="25">
         <v>0</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="25">
         <v>0</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="25">
         <v>0</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="25">
         <v>0</v>
       </c>
-      <c r="R4" s="26">
+      <c r="R4" s="25">
         <v>0</v>
       </c>
-      <c r="S4" s="55">
+      <c r="S4" s="54">
         <v>0</v>
       </c>
-      <c r="T4" s="55">
+      <c r="T4" s="54">
         <v>0</v>
       </c>
-      <c r="U4" s="55">
+      <c r="U4" s="54">
         <v>0</v>
       </c>
-      <c r="V4" s="55">
+      <c r="V4" s="54">
         <v>0</v>
       </c>
-      <c r="W4" s="53">
+      <c r="W4" s="52">
         <v>0</v>
       </c>
-      <c r="X4" s="53">
+      <c r="X4" s="52">
         <v>0</v>
       </c>
-      <c r="Y4" s="53">
+      <c r="Y4" s="52">
         <v>0</v>
       </c>
-      <c r="Z4" s="53">
+      <c r="Z4" s="52">
         <v>0</v>
       </c>
-      <c r="AA4" s="53">
+      <c r="AA4" s="52">
         <v>0</v>
       </c>
-      <c r="AB4" s="53">
+      <c r="AB4" s="52">
         <v>0</v>
       </c>
-      <c r="AC4" s="28">
+      <c r="AC4" s="27">
         <v>0</v>
       </c>
-      <c r="AD4" s="28">
+      <c r="AD4" s="27">
         <v>0</v>
       </c>
-      <c r="AE4" s="28">
+      <c r="AE4" s="27">
         <v>0</v>
       </c>
-      <c r="AF4" s="28">
+      <c r="AF4" s="27">
         <v>0</v>
       </c>
-      <c r="AG4" s="28">
+      <c r="AG4" s="27">
         <v>0</v>
       </c>
-      <c r="AH4" s="28">
+      <c r="AH4" s="27">
         <v>0</v>
       </c>
-      <c r="AI4" s="53">
+      <c r="AI4" s="52">
         <v>0</v>
       </c>
-      <c r="AJ4" s="53">
+      <c r="AJ4" s="52">
         <v>0</v>
       </c>
-      <c r="AK4" s="53">
+      <c r="AK4" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="69">
         <v>2</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="69">
         <v>-974.85500000000002</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="69">
         <v>0</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="69">
         <v>0</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="69">
         <v>0</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="69">
         <v>0</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="69">
         <v>0</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="69">
         <v>0</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="69">
         <v>0</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="69">
         <v>0</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="69">
         <v>0</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="69">
         <v>0</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="69">
         <v>0</v>
       </c>
-      <c r="O5" s="26">
+      <c r="O5" s="69">
         <v>0</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="69">
         <v>0</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="Q5" s="69">
         <v>0</v>
       </c>
-      <c r="R5" s="26">
+      <c r="R5" s="69">
         <v>0</v>
       </c>
-      <c r="S5" s="55">
+      <c r="S5" s="69">
         <v>12.12</v>
       </c>
-      <c r="T5" s="63">
+      <c r="T5" s="138">
         <v>23110</v>
       </c>
-      <c r="U5" s="63">
+      <c r="U5" s="138">
         <v>219600</v>
       </c>
-      <c r="V5" s="63">
+      <c r="V5" s="138">
         <v>219600</v>
       </c>
-      <c r="W5" s="53">
+      <c r="W5" s="69">
         <v>0</v>
       </c>
-      <c r="X5" s="53">
+      <c r="X5" s="69">
         <v>0</v>
       </c>
-      <c r="Y5" s="53">
+      <c r="Y5" s="69">
         <v>0</v>
       </c>
-      <c r="Z5" s="53">
+      <c r="Z5" s="69">
         <v>0</v>
       </c>
-      <c r="AA5" s="53">
+      <c r="AA5" s="69">
         <v>0</v>
       </c>
-      <c r="AB5" s="53">
+      <c r="AB5" s="69">
         <v>0</v>
       </c>
-      <c r="AC5" s="28">
+      <c r="AC5" s="27">
         <v>0</v>
       </c>
-      <c r="AD5" s="28">
+      <c r="AD5" s="27">
         <v>0</v>
       </c>
-      <c r="AE5" s="28">
+      <c r="AE5" s="27">
         <v>0</v>
       </c>
-      <c r="AF5" s="28">
+      <c r="AF5" s="27">
         <v>0</v>
       </c>
-      <c r="AG5" s="28">
+      <c r="AG5" s="27">
         <v>0</v>
       </c>
-      <c r="AH5" s="28">
+      <c r="AH5" s="27">
         <v>0</v>
       </c>
-      <c r="AI5" s="53">
+      <c r="AI5" s="69">
         <v>0</v>
       </c>
-      <c r="AJ5" s="53">
+      <c r="AJ5" s="69">
         <v>0</v>
       </c>
-      <c r="AK5" s="53">
+      <c r="AK5" s="69">
         <v>0</v>
       </c>
     </row>
@@ -3358,7 +3373,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="58"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="1"/>
@@ -3376,7 +3391,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="58"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="1"/>
@@ -3394,7 +3409,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="58"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="1"/>
@@ -3412,7 +3427,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="58"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="1"/>
@@ -6426,12 +6441,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="O2:Q2"/>
@@ -6443,6 +6452,12 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6454,7 +6469,7 @@
   <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6473,16 +6488,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6513,11 +6528,11 @@
       <c r="E2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="105" t="s">
+      <c r="F2" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -6573,19 +6588,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -6595,31 +6610,31 @@
       <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="110"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="109" t="s">
+      <c r="G6" s="107"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="110"/>
-      <c r="K6" s="111"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="108"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
@@ -6655,22 +6670,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="103"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -6695,21 +6710,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="105" t="s">
+      <c r="F9" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="103" t="s">
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103" t="s">
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="103"/>
-      <c r="N9" s="103"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -6740,19 +6755,19 @@
       <c r="X10" s="10"/>
     </row>
     <row r="11" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
@@ -6777,16 +6792,16 @@
       <c r="E12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="105" t="s">
+      <c r="F12" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="103" t="s">
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -6856,19 +6871,19 @@
       <c r="X14" s="10"/>
     </row>
     <row r="15" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="104"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
@@ -6893,16 +6908,16 @@
       <c r="E16" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="105" t="s">
+      <c r="F16" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="103" t="s">
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
     </row>
     <row r="17" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
@@ -6939,19 +6954,19 @@
       <c r="X18" s="10"/>
     </row>
     <row r="19" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="104" t="s">
+      <c r="A19" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="104"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="104"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="103"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
@@ -6976,128 +6991,128 @@
       <c r="E20" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="105" t="s">
+      <c r="F20" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="103" t="s">
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="105"/>
     </row>
     <row r="21" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="104" t="s">
+      <c r="A23" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="104"/>
-      <c r="N23" s="104"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="103"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="103"/>
     </row>
     <row r="24" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="E24" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="105" t="s">
+      <c r="F24" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="103" t="s">
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="103" t="s">
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="M24" s="103"/>
-      <c r="N24" s="103"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
     </row>
     <row r="25" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="104" t="s">
+      <c r="A27" s="103" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="104"/>
-      <c r="K27" s="104"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="104"/>
-      <c r="N27" s="104"/>
-      <c r="O27" s="104"/>
-      <c r="P27" s="104"/>
-      <c r="Q27" s="104"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="103"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="103"/>
     </row>
     <row r="28" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="109" t="s">
+      <c r="F28" s="106" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="110"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="109" t="s">
+      <c r="G28" s="107"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="110"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="103" t="s">
+      <c r="J28" s="107"/>
+      <c r="K28" s="108"/>
+      <c r="L28" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="M28" s="103"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103" t="s">
+      <c r="M28" s="105"/>
+      <c r="N28" s="105"/>
+      <c r="O28" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="103"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="105"/>
     </row>
     <row r="29" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
@@ -7120,14 +7135,14 @@
     </row>
     <row r="30" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="104" t="s">
+      <c r="A31" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="103"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -7201,12 +7216,12 @@
       <c r="X34" s="10"/>
     </row>
     <row r="35" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="104" t="s">
+      <c r="A35" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="104"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -7278,15 +7293,15 @@
       <c r="K38" s="11"/>
     </row>
     <row r="39" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="106" t="s">
+      <c r="A39" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="107"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="108"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="111"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
@@ -7306,57 +7321,57 @@
       <c r="D40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="103" t="s">
+      <c r="E40" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
     <row r="41" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="39">
+      <c r="A41" s="38">
         <v>1</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39">
-        <v>2</v>
-      </c>
-      <c r="E41" s="39">
+      <c r="C41" s="38"/>
+      <c r="D41" s="38">
+        <v>1</v>
+      </c>
+      <c r="E41" s="38">
         <v>0</v>
       </c>
-      <c r="F41" s="39">
+      <c r="F41" s="38">
         <v>0</v>
       </c>
-      <c r="G41" s="39">
+      <c r="G41" s="38">
         <v>0</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39">
+      <c r="A42" s="38">
         <v>2</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39">
+      <c r="C42" s="38"/>
+      <c r="D42" s="38">
         <v>2</v>
       </c>
-      <c r="E42" s="39">
-        <v>-1000</v>
-      </c>
-      <c r="F42" s="39">
+      <c r="E42" s="38">
+        <v>-974.86</v>
+      </c>
+      <c r="F42" s="38">
         <v>0</v>
       </c>
-      <c r="G42" s="39">
+      <c r="G42" s="38">
         <v>0</v>
       </c>
       <c r="H42" s="12"/>
@@ -7378,21 +7393,6 @@
     <row r="59" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="A15:K15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
     <mergeCell ref="E40:G40"/>
     <mergeCell ref="A19:K19"/>
     <mergeCell ref="F20:H20"/>
@@ -7409,6 +7409,21 @@
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="L28:N28"/>
     <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -7462,33 +7477,33 @@
       <c r="K1" s="113"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="E2" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="F2" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="61" t="s">
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="60" t="s">
         <v>240</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="K2" s="61" t="s">
+      <c r="K2" s="60" t="s">
         <v>242</v>
       </c>
     </row>
@@ -7501,11 +7516,11 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
-      <c r="I3" s="24"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I4" s="24"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H11" t="s">
@@ -7581,19 +7596,19 @@
       <c r="S1" s="113"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
       <c r="N2" s="114" t="s">
         <v>243</v>
       </c>
@@ -7602,129 +7617,129 @@
       <c r="Q2" s="115"/>
       <c r="R2" s="115"/>
       <c r="S2" s="116"/>
-      <c r="AB2" s="125" t="s">
+      <c r="AB2" s="117" t="s">
         <v>118</v>
       </c>
-      <c r="AC2" s="126"/>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="126"/>
-      <c r="AG2" s="127"/>
-    </row>
-    <row r="3" spans="1:33" s="29" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="AC2" s="118"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="118"/>
+      <c r="AG2" s="119"/>
+    </row>
+    <row r="3" spans="1:33" s="28" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="120" t="s">
+      <c r="F3" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="136"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="122" t="s">
+      <c r="G3" s="129"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="123"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="64" t="s">
+      <c r="J3" s="132"/>
+      <c r="K3" s="133"/>
+      <c r="L3" s="62" t="s">
         <v>244</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="N3" s="62" t="s">
+      <c r="N3" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="62" t="s">
+      <c r="O3" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="P3" s="62" t="s">
+      <c r="P3" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="R3" s="134" t="s">
+      <c r="R3" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="S3" s="134"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="129"/>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="129"/>
-      <c r="AF3" s="129"/>
-      <c r="AG3" s="130"/>
+      <c r="S3" s="126"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="121"/>
+      <c r="AD3" s="121"/>
+      <c r="AE3" s="121"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="122"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="33"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="32"/>
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="129"/>
-      <c r="AD4" s="129"/>
-      <c r="AE4" s="129"/>
-      <c r="AF4" s="129"/>
-      <c r="AG4" s="130"/>
+      <c r="AB4" s="120"/>
+      <c r="AC4" s="121"/>
+      <c r="AD4" s="121"/>
+      <c r="AE4" s="121"/>
+      <c r="AF4" s="121"/>
+      <c r="AG4" s="122"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="AB5" s="128"/>
-      <c r="AC5" s="129"/>
-      <c r="AD5" s="129"/>
-      <c r="AE5" s="129"/>
-      <c r="AF5" s="129"/>
-      <c r="AG5" s="130"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="AB5" s="120"/>
+      <c r="AC5" s="121"/>
+      <c r="AD5" s="121"/>
+      <c r="AE5" s="121"/>
+      <c r="AF5" s="121"/>
+      <c r="AG5" s="122"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AB6" s="128"/>
-      <c r="AC6" s="129"/>
-      <c r="AD6" s="129"/>
-      <c r="AE6" s="129"/>
-      <c r="AF6" s="129"/>
-      <c r="AG6" s="130"/>
+      <c r="AB6" s="120"/>
+      <c r="AC6" s="121"/>
+      <c r="AD6" s="121"/>
+      <c r="AE6" s="121"/>
+      <c r="AF6" s="121"/>
+      <c r="AG6" s="122"/>
     </row>
     <row r="7" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="112" t="s">
@@ -7747,142 +7762,142 @@
       <c r="P7" s="113"/>
       <c r="Q7" s="113"/>
       <c r="R7" s="113"/>
-      <c r="AB7" s="128"/>
-      <c r="AC7" s="129"/>
-      <c r="AD7" s="129"/>
-      <c r="AE7" s="129"/>
-      <c r="AF7" s="129"/>
-      <c r="AG7" s="130"/>
+      <c r="AB7" s="120"/>
+      <c r="AC7" s="121"/>
+      <c r="AD7" s="121"/>
+      <c r="AE7" s="121"/>
+      <c r="AF7" s="121"/>
+      <c r="AG7" s="122"/>
     </row>
     <row r="8" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="104"/>
-      <c r="B8" s="104"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="135" t="s">
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="127" t="s">
         <v>245</v>
       </c>
-      <c r="O8" s="135"/>
-      <c r="P8" s="135"/>
-      <c r="Q8" s="135"/>
-      <c r="R8" s="135"/>
-      <c r="AB8" s="128"/>
-      <c r="AC8" s="129"/>
-      <c r="AD8" s="129"/>
-      <c r="AE8" s="129"/>
-      <c r="AF8" s="129"/>
-      <c r="AG8" s="130"/>
-    </row>
-    <row r="9" spans="1:33" s="29" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
+      <c r="O8" s="127"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
+      <c r="AB8" s="120"/>
+      <c r="AC8" s="121"/>
+      <c r="AD8" s="121"/>
+      <c r="AE8" s="121"/>
+      <c r="AF8" s="121"/>
+      <c r="AG8" s="122"/>
+    </row>
+    <row r="9" spans="1:33" s="28" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="62" t="s">
+      <c r="C9" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="62" t="s">
+      <c r="D9" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="120" t="s">
+      <c r="F9" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="136"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="122" t="s">
+      <c r="G9" s="129"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="123"/>
-      <c r="K9" s="124"/>
-      <c r="L9" s="32" t="s">
+      <c r="J9" s="132"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="M9" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="N9" s="34" t="s">
+      <c r="N9" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="O9" s="34" t="s">
+      <c r="O9" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="P9" s="35" t="s">
+      <c r="P9" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="Q9" s="120" t="s">
+      <c r="Q9" s="128" t="s">
         <v>116</v>
       </c>
-      <c r="R9" s="121"/>
-      <c r="AB9" s="128"/>
-      <c r="AC9" s="129"/>
-      <c r="AD9" s="129"/>
-      <c r="AE9" s="129"/>
-      <c r="AF9" s="129"/>
-      <c r="AG9" s="130"/>
+      <c r="R9" s="130"/>
+      <c r="AB9" s="120"/>
+      <c r="AC9" s="121"/>
+      <c r="AD9" s="121"/>
+      <c r="AE9" s="121"/>
+      <c r="AF9" s="121"/>
+      <c r="AG9" s="122"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="24"/>
-      <c r="AB10" s="128"/>
-      <c r="AC10" s="129"/>
-      <c r="AD10" s="129"/>
-      <c r="AE10" s="129"/>
-      <c r="AF10" s="129"/>
-      <c r="AG10" s="130"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="23"/>
+      <c r="AB10" s="120"/>
+      <c r="AC10" s="121"/>
+      <c r="AD10" s="121"/>
+      <c r="AE10" s="121"/>
+      <c r="AF10" s="121"/>
+      <c r="AG10" s="122"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="66"/>
-      <c r="AB11" s="128"/>
-      <c r="AC11" s="129"/>
-      <c r="AD11" s="129"/>
-      <c r="AE11" s="129"/>
-      <c r="AF11" s="129"/>
-      <c r="AG11" s="130"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="64"/>
+      <c r="AB11" s="120"/>
+      <c r="AC11" s="121"/>
+      <c r="AD11" s="121"/>
+      <c r="AE11" s="121"/>
+      <c r="AF11" s="121"/>
+      <c r="AG11" s="122"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="Q12" s="39"/>
-      <c r="AB12" s="128"/>
-      <c r="AC12" s="129"/>
-      <c r="AD12" s="129"/>
-      <c r="AE12" s="129"/>
-      <c r="AF12" s="129"/>
-      <c r="AG12" s="130"/>
+      <c r="Q12" s="38"/>
+      <c r="AB12" s="120"/>
+      <c r="AC12" s="121"/>
+      <c r="AD12" s="121"/>
+      <c r="AE12" s="121"/>
+      <c r="AF12" s="121"/>
+      <c r="AG12" s="122"/>
     </row>
     <row r="13" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="112" t="s">
@@ -7912,33 +7927,33 @@
       <c r="W13" s="113"/>
       <c r="X13" s="113"/>
       <c r="Y13" s="113"/>
-      <c r="AB13" s="131"/>
-      <c r="AC13" s="132"/>
-      <c r="AD13" s="132"/>
-      <c r="AE13" s="132"/>
-      <c r="AF13" s="132"/>
-      <c r="AG13" s="133"/>
+      <c r="AB13" s="123"/>
+      <c r="AC13" s="124"/>
+      <c r="AD13" s="124"/>
+      <c r="AE13" s="124"/>
+      <c r="AF13" s="124"/>
+      <c r="AG13" s="125"/>
     </row>
     <row r="14" spans="1:33" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="106"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="108"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="110"/>
+      <c r="S14" s="111"/>
       <c r="T14" s="114" t="s">
         <v>246</v>
       </c>
@@ -7947,111 +7962,111 @@
       <c r="W14" s="115"/>
       <c r="X14" s="115"/>
       <c r="Y14" s="116"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="67"/>
-    </row>
-    <row r="15" spans="1:33" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
+      <c r="Z14" s="65"/>
+      <c r="AA14" s="65"/>
+    </row>
+    <row r="15" spans="1:33" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="62" t="s">
+      <c r="D15" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="E15" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="86" t="s">
+      <c r="F15" s="93" t="s">
         <v>247</v>
       </c>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="122" t="s">
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="131" t="s">
         <v>248</v>
       </c>
-      <c r="J15" s="123"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="117" t="s">
+      <c r="J15" s="132"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="134" t="s">
         <v>249</v>
       </c>
-      <c r="M15" s="118"/>
-      <c r="N15" s="119"/>
-      <c r="O15" s="117" t="s">
+      <c r="M15" s="135"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="134" t="s">
         <v>250</v>
       </c>
-      <c r="P15" s="118"/>
-      <c r="Q15" s="119"/>
-      <c r="R15" s="32" t="s">
+      <c r="P15" s="135"/>
+      <c r="Q15" s="136"/>
+      <c r="R15" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="S15" s="60" t="s">
+      <c r="S15" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="T15" s="62" t="s">
+      <c r="T15" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="U15" s="62" t="s">
+      <c r="U15" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="V15" s="62" t="s">
+      <c r="V15" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="W15" s="32" t="s">
+      <c r="W15" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="X15" s="120" t="s">
+      <c r="X15" s="128" t="s">
         <v>117</v>
       </c>
-      <c r="Y15" s="121"/>
+      <c r="Y15" s="130"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="39"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
     </row>
     <row r="18" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="112" t="s">
@@ -8075,17 +8090,17 @@
       <c r="Q18" s="113"/>
     </row>
     <row r="19" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="68"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
       <c r="L19" s="114" t="s">
         <v>243</v>
       </c>
@@ -8095,101 +8110,106 @@
       <c r="P19" s="115"/>
       <c r="Q19" s="116"/>
     </row>
-    <row r="20" spans="1:20" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
+    <row r="20" spans="1:20" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="86" t="s">
+      <c r="F20" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="117" t="s">
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="134" t="s">
         <v>154</v>
       </c>
-      <c r="J20" s="118"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="62" t="s">
+      <c r="J20" s="135"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="M20" s="62" t="s">
+      <c r="M20" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="N20" s="62" t="s">
+      <c r="N20" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="O20" s="32" t="s">
+      <c r="O20" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="P20" s="120" t="s">
+      <c r="P20" s="128" t="s">
         <v>117</v>
       </c>
-      <c r="Q20" s="121"/>
+      <c r="Q20" s="130"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A14:S14"/>
-    <mergeCell ref="A18:Q18"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="X15:Y15"/>
     <mergeCell ref="AB2:AG13"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="A8:M8"/>
@@ -8201,16 +8221,11 @@
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A14:S14"/>
+    <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="N2:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8233,36 +8248,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="103" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="F1" s="90" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="F1" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="92"/>
-      <c r="I1" s="90" t="s">
+      <c r="G1" s="76"/>
+      <c r="I1" s="74" t="s">
         <v>233</v>
       </c>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="92"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="49" t="s">
         <v>128</v>
       </c>
       <c r="I2" s="137" t="s">
@@ -8273,13 +8288,13 @@
       <c r="L2" s="137"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="F3" s="50" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="F3" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="50" t="s">
         <v>159</v>
       </c>
       <c r="I3" s="137"/>
@@ -8288,13 +8303,13 @@
       <c r="L3" s="137"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="F4" s="50" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="F4" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="50" t="s">
         <v>160</v>
       </c>
       <c r="I4" s="137"/>
@@ -8303,13 +8318,13 @@
       <c r="L4" s="137"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="F5" s="50" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="F5" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="50" t="s">
         <v>163</v>
       </c>
       <c r="I5" s="137"/>
@@ -8318,13 +8333,13 @@
       <c r="L5" s="137"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="F6" s="50" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="F6" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="50" t="s">
         <v>164</v>
       </c>
       <c r="I6" s="137"/>
@@ -8333,160 +8348,160 @@
       <c r="L6" s="137"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="50" t="s">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="49" t="s">
         <v>165</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="50" t="s">
         <v>169</v>
       </c>
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="F8" s="50" t="s">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="F8" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="G8" s="51" t="s">
+      <c r="G8" s="50" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="50" t="s">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="H9" s="31"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="F10" s="50" t="s">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="F10" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="50" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="F11" s="50" t="s">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="F11" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="50" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="F12" s="50" t="s">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="F12" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="50" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="F13" s="50" t="s">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="F13" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="G13" s="51" t="s">
+      <c r="G13" s="50" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="F14" s="50" t="s">
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="F14" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="50" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="F15" s="50" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="F15" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="50" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="F16" s="50" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="F16" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="50" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="F17" s="50" t="s">
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="F17" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="50" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="F18" s="50" t="s">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="F18" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="50" t="s">
         <v>188</v>
       </c>
       <c r="O18" s="17">
         <v>4</v>
       </c>
-      <c r="P18" s="39" t="s">
+      <c r="P18" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39">
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38">
         <v>4</v>
       </c>
-      <c r="S18" s="39">
+      <c r="S18" s="38">
         <v>5</v>
       </c>
-      <c r="T18" s="39">
+      <c r="T18" s="38">
         <v>1000</v>
       </c>
-      <c r="U18" s="39">
+      <c r="U18" s="38">
         <v>0</v>
       </c>
-      <c r="V18" s="39">
+      <c r="V18" s="38">
         <v>-1000</v>
       </c>
       <c r="W18" s="17">
@@ -8509,254 +8524,254 @@
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="F19" s="50" t="s">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="F19" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="G19" s="50" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="F20" s="50" t="s">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="F20" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="G20" s="51" t="s">
+      <c r="G20" s="50" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="F21" s="50" t="s">
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="F21" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="50" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="F22" s="50" t="s">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="F22" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="G22" s="52" t="s">
+      <c r="G22" s="51" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="F23" s="27" t="s">
+      <c r="A23" s="49"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="F23" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="51" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="F24" s="27" t="s">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="F24" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="G24" s="52" t="s">
+      <c r="G24" s="51" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="F25" s="27" t="s">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="F25" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="G25" s="52" t="s">
+      <c r="G25" s="51" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="F26" s="27" t="s">
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="F26" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="G26" s="52" t="s">
+      <c r="G26" s="51" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="F27" s="27" t="s">
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="F27" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="G27" s="52" t="s">
+      <c r="G27" s="51" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="F28" s="27" t="s">
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="F28" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="G28" s="52" t="s">
+      <c r="G28" s="51" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="F29" s="27" t="s">
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="F29" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="G29" s="52" t="s">
+      <c r="G29" s="51" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="F30" s="27" t="s">
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="F30" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="G30" s="52" t="s">
+      <c r="G30" s="51" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="F31" s="27" t="s">
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="F31" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="G31" s="52" t="s">
+      <c r="G31" s="51" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="F32" s="27" t="s">
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="F32" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="G32" s="52" t="s">
+      <c r="G32" s="51" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="F33" s="27" t="s">
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="F33" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="G33" s="52" t="s">
+      <c r="G33" s="51" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="F34" s="27" t="s">
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="F34" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="G34" s="52" t="s">
+      <c r="G34" s="51" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="F35" s="27" t="s">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="F35" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="G35" s="52" t="s">
+      <c r="G35" s="51" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="F36" s="27" t="s">
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="F36" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="G36" s="52" t="s">
+      <c r="G36" s="51" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="F37" s="27" t="s">
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="F37" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="G37" s="52" t="s">
+      <c r="G37" s="51" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="F38" s="27" t="s">
+      <c r="A38" s="49"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="F38" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="G38" s="52" t="s">
+      <c r="G38" s="51" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="50"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
+      <c r="A42" s="49"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="4">
